--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_2_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_2_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -775,7 +775,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1223,7 +1223,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1501,7 +1501,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1669,7 +1669,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -8261,7 +8261,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -8507,7 +8507,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>MBL</t>
         </is>
       </c>
     </row>

--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_2_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_2_.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +134,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -148,30 +150,30 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -181,229 +183,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>In Trailer</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -426,15 +436,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -451,115 +461,108 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>20-GP</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>24</v>
       </c>
     </row>
@@ -584,15 +587,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -609,103 +612,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -730,13 +726,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -745,31 +741,31 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -779,234 +775,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1029,15 +1028,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1054,103 +1053,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1175,13 +1167,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1189,35 +1181,35 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
-    <col min="35" max="35" bestFit="false" customWidth="false"/>
-    <col min="36" max="36" bestFit="false" customWidth="false"/>
-    <col min="37" max="37" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1227,237 +1219,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Out Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Total Lot</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Total Weight</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Out Transport</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>Out Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1480,15 +1490,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1505,103 +1515,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1626,13 +1629,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF66"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1640,30 +1643,30 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="20.68988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="23.98988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="30" max="30" bestFit="false" customWidth="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="3.089887640449438"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1673,189 +1676,305 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Laden Container Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:59</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>8829</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>MSKU7718973</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>VASI SUN</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>0116/2017</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>BENGAL TRADING</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>CHICK PEAS</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>AU0512384</t>
+        </is>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>2017-1136</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="d">
+        <v>2017-01-16T00:00:00</v>
+      </c>
+      <c r="X7" s="0" t="d">
+        <v>2017-01-17T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>BL #</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>571749290</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8829</v>
+        <v>8830</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>MSKU7718973</t>
+          <t>MSKU2423244</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1915,27 +2034,27 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>AU0512384</t>
+          <t>AU0514169</t>
         </is>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>2017-1136</t>
+          <t>2017-1282</t>
         </is>
       </c>
       <c r="W8" s="0" t="d">
         <v>2017-01-16T00:00:00</v>
       </c>
       <c r="X8" s="0" t="d">
-        <v>2017-01-17T00:00:00</v>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
+        <v>2017-01-21T00:00:00</v>
+      </c>
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -1959,19 +2078,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>8830</v>
+        <v>8868</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>MSKU2423244</t>
+          <t>MSKU9163730</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -1991,17 +2110,17 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>0116/2017</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>BENGAL TRADING</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -2018,32 +2137,32 @@
       <c r="R9" s="0"/>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>CHICK PEAS</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>AU0514169</t>
+          <t>KWH687344</t>
         </is>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>2017-1282</t>
+          <t>2018-9476</t>
         </is>
       </c>
       <c r="W9" s="0" t="d">
-        <v>2017-01-16T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="X9" s="0" t="d">
-        <v>2017-01-21T00:00:00</v>
-      </c>
-      <c r="Y9" s="0" t="inlineStr">
+        <v>2018-05-30T00:00:00</v>
+      </c>
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2052,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>571749290</v>
+        <v>963897980</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="AD9" s="0"/>
       <c r="AE9" s="0" t="inlineStr">
@@ -2067,11 +2186,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8868</v>
+        <v>8869</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>MSKU9163730</t>
+          <t>MSKU9055669</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2131,13 +2250,13 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>KWH687344</t>
+          <t>KWH687327</t>
         </is>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>2018-9476</t>
+          <t>2018-9477</t>
         </is>
       </c>
       <c r="W10" s="0" t="d">
@@ -2146,12 +2265,12 @@
       <c r="X10" s="0" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
-      <c r="Y10" s="0" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2175,11 +2294,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8869</v>
+        <v>8870</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>MSKU9055669</t>
+          <t>PONU1509889</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2187,7 +2306,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -2239,13 +2358,13 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>KWH687327</t>
+          <t>KWH686765</t>
         </is>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>2018-9477</t>
+          <t>2018-9491</t>
         </is>
       </c>
       <c r="W11" s="0" t="d">
@@ -2254,12 +2373,12 @@
       <c r="X11" s="0" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
-      <c r="Y11" s="0" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2283,11 +2402,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8870</v>
+        <v>8871</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>PONU1509889</t>
+          <t>SUDU6787150</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2295,7 +2414,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -2347,13 +2466,13 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>KWH686765</t>
+          <t>KWH686903</t>
         </is>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>2018-9491</t>
+          <t>2018-9489</t>
         </is>
       </c>
       <c r="W12" s="0" t="d">
@@ -2362,12 +2481,12 @@
       <c r="X12" s="0" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
-      <c r="Y12" s="0" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2391,11 +2510,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8871</v>
+        <v>8872</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>SUDU6787150</t>
+          <t>MSKU0599445</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2455,13 +2574,13 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>KWH686903</t>
+          <t>KWH686830</t>
         </is>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>2018-9489</t>
+          <t>2018-9490</t>
         </is>
       </c>
       <c r="W13" s="0" t="d">
@@ -2470,12 +2589,12 @@
       <c r="X13" s="0" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
-      <c r="Y13" s="0" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2499,11 +2618,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>8872</v>
+        <v>8873</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MSKU0599445</t>
+          <t>MSKU8668440</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2563,13 +2682,13 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>KWH686830</t>
+          <t>KWH687350</t>
         </is>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>2018-9490</t>
+          <t>2018-9485</t>
         </is>
       </c>
       <c r="W14" s="0" t="d">
@@ -2578,12 +2697,12 @@
       <c r="X14" s="0" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
-      <c r="Y14" s="0" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2607,11 +2726,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8873</v>
+        <v>8874</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>MSKU8668440</t>
+          <t>PONU1855367</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2619,7 +2738,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
@@ -2671,13 +2790,13 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>KWH687350</t>
+          <t>KWH686929</t>
         </is>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>2018-9485</t>
+          <t>2018-9501</t>
         </is>
       </c>
       <c r="W15" s="0" t="d">
@@ -2686,12 +2805,12 @@
       <c r="X15" s="0" t="d">
         <v>2018-05-30T00:00:00</v>
       </c>
-      <c r="Y15" s="0" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2715,11 +2834,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8874</v>
+        <v>8875</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>PONU1855367</t>
+          <t>MSKU6694310</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2779,27 +2898,27 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>KWH686929</t>
+          <t>KWH632850</t>
         </is>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>2018-9501</t>
+          <t>2018-9543</t>
         </is>
       </c>
       <c r="W16" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="X16" s="0" t="d">
-        <v>2018-05-30T00:00:00</v>
-      </c>
-      <c r="Y16" s="0" t="inlineStr">
+        <v>2018-05-31T00:00:00</v>
+      </c>
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2823,11 +2942,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8875</v>
+        <v>8876</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>MSKU6694310</t>
+          <t>MSKU6654010</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2887,13 +3006,13 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>KWH632850</t>
+          <t>KWH687345</t>
         </is>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>2018-9543</t>
+          <t>2018-9544</t>
         </is>
       </c>
       <c r="W17" s="0" t="d">
@@ -2902,12 +3021,12 @@
       <c r="X17" s="0" t="d">
         <v>2018-05-31T00:00:00</v>
       </c>
-      <c r="Y17" s="0" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2931,11 +3050,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>8876</v>
+        <v>8877</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>MSKU6654010</t>
+          <t>MSKU8000770</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2943,7 +3062,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2995,13 +3114,13 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>KWH687345</t>
+          <t>KWH686930</t>
         </is>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>2018-9544</t>
+          <t>2018-9534</t>
         </is>
       </c>
       <c r="W18" s="0" t="d">
@@ -3010,12 +3129,12 @@
       <c r="X18" s="0" t="d">
         <v>2018-05-31T00:00:00</v>
       </c>
-      <c r="Y18" s="0" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3039,11 +3158,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>8877</v>
+        <v>8878</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>MSKU8000770</t>
+          <t>PONU1823713</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3051,7 +3170,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -3103,27 +3222,27 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>KWH686930</t>
+          <t>KWH687283</t>
         </is>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>2018-9534</t>
+          <t>2018-9500</t>
         </is>
       </c>
       <c r="W19" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="X19" s="0" t="d">
-        <v>2018-05-31T00:00:00</v>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
+        <v>2018-06-02T00:00:00</v>
+      </c>
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3147,11 +3266,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>8878</v>
+        <v>8879</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>PONU1823713</t>
+          <t>HASU4651075</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3159,7 +3278,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -3209,15 +3328,13 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T20" s="0" t="inlineStr">
-        <is>
-          <t>KWH687283</t>
-        </is>
+      <c r="T20" s="0" t="n">
+        <v>686923</v>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>2018-9500</t>
+          <t>2018-9671</t>
         </is>
       </c>
       <c r="W20" s="0" t="d">
@@ -3226,12 +3343,12 @@
       <c r="X20" s="0" t="d">
         <v>2018-06-02T00:00:00</v>
       </c>
-      <c r="Y20" s="0" t="inlineStr">
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
+      <c r="Z20" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3255,11 +3372,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>8879</v>
+        <v>8880</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>HASU4651075</t>
+          <t>PONU1438403</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3267,7 +3384,7 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -3317,13 +3434,15 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T21" s="0" t="n">
-        <v>686923</v>
+      <c r="T21" s="0" t="inlineStr">
+        <is>
+          <t>KWH687276</t>
+        </is>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>2018-9671</t>
+          <t>2018-9672</t>
         </is>
       </c>
       <c r="W21" s="0" t="d">
@@ -3332,12 +3451,12 @@
       <c r="X21" s="0" t="d">
         <v>2018-06-02T00:00:00</v>
       </c>
-      <c r="Y21" s="0" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3361,11 +3480,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>8880</v>
+        <v>8881</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>PONU1438403</t>
+          <t>MSKU6316727</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3425,13 +3544,13 @@
       </c>
       <c r="T22" s="0" t="inlineStr">
         <is>
-          <t>KWH687276</t>
+          <t>UL2916156</t>
         </is>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>2018-9672</t>
+          <t>2018-9673</t>
         </is>
       </c>
       <c r="W22" s="0" t="d">
@@ -3440,12 +3559,12 @@
       <c r="X22" s="0" t="d">
         <v>2018-06-02T00:00:00</v>
       </c>
-      <c r="Y22" s="0" t="inlineStr">
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3469,11 +3588,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>8881</v>
+        <v>8882</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>MSKU6316727</t>
+          <t>MAEU6360629</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3533,13 +3652,13 @@
       </c>
       <c r="T23" s="0" t="inlineStr">
         <is>
-          <t>UL2916156</t>
+          <t>KWH687285</t>
         </is>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>2018-9673</t>
+          <t>2018-9574</t>
         </is>
       </c>
       <c r="W23" s="0" t="d">
@@ -3548,12 +3667,12 @@
       <c r="X23" s="0" t="d">
         <v>2018-06-02T00:00:00</v>
       </c>
-      <c r="Y23" s="0" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3577,11 +3696,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>8882</v>
+        <v>8883</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>MAEU6360629</t>
+          <t>PONU1484707</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3641,13 +3760,13 @@
       </c>
       <c r="T24" s="0" t="inlineStr">
         <is>
-          <t>KWH687285</t>
+          <t>KWH687286</t>
         </is>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>2018-9574</t>
+          <t>2018-9679</t>
         </is>
       </c>
       <c r="W24" s="0" t="d">
@@ -3656,12 +3775,12 @@
       <c r="X24" s="0" t="d">
         <v>2018-06-02T00:00:00</v>
       </c>
-      <c r="Y24" s="0" t="inlineStr">
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3685,11 +3804,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>8883</v>
+        <v>8884</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>PONU1484707</t>
+          <t>MRKU3419530</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3697,7 +3816,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -3747,29 +3866,27 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T25" s="0" t="inlineStr">
-        <is>
-          <t>KWH687286</t>
-        </is>
+      <c r="T25" s="0" t="n">
+        <v>1098426</v>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>2018-9679</t>
+          <t>2018-9632</t>
         </is>
       </c>
       <c r="W25" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="X25" s="0" t="d">
-        <v>2018-06-02T00:00:00</v>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
+        <v>2018-06-03T00:00:00</v>
+      </c>
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3793,11 +3910,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>8884</v>
+        <v>8885</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>MRKU3419530</t>
+          <t>PONU7575743</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3855,27 +3972,29 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T26" s="0" t="n">
-        <v>1098426</v>
+      <c r="T26" s="0" t="inlineStr">
+        <is>
+          <t>KWH686922</t>
+        </is>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>2018-9632</t>
+          <t>2018-9506</t>
         </is>
       </c>
       <c r="W26" s="0" t="d">
         <v>2018-05-19T00:00:00</v>
       </c>
       <c r="X26" s="0" t="d">
-        <v>2018-06-03T00:00:00</v>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
+        <v>2018-06-04T00:00:00</v>
+      </c>
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3899,11 +4018,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>8885</v>
+        <v>8886</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>PONU7575743</t>
+          <t>TCLU5436696</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3963,13 +4082,13 @@
       </c>
       <c r="T27" s="0" t="inlineStr">
         <is>
-          <t>KWH686922</t>
+          <t>KWH687295</t>
         </is>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>2018-9506</t>
+          <t>2018-9736</t>
         </is>
       </c>
       <c r="W27" s="0" t="d">
@@ -3978,12 +4097,12 @@
       <c r="X27" s="0" t="d">
         <v>2018-06-04T00:00:00</v>
       </c>
-      <c r="Y27" s="0" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4007,11 +4126,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>8886</v>
+        <v>8887</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>TCLU5436696</t>
+          <t>MSKU6253948</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4019,7 +4138,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -4039,12 +4158,12 @@
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
@@ -4071,27 +4190,27 @@
       </c>
       <c r="T28" s="0" t="inlineStr">
         <is>
-          <t>KWH687295</t>
+          <t>KWH686907</t>
         </is>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>2018-9736</t>
+          <t>2018-9531</t>
         </is>
       </c>
       <c r="W28" s="0" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="X28" s="0" t="d">
-        <v>2018-06-04T00:00:00</v>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
+        <v>2018-05-31T00:00:00</v>
+      </c>
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4100,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="0" t="n">
-        <v>963897980</v>
+        <v>575334555</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AD28" s="0"/>
       <c r="AE28" s="0" t="inlineStr">
@@ -4115,11 +4234,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>8887</v>
+        <v>8888</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>MSKU6253948</t>
+          <t>MSKU6120061</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4179,13 +4298,13 @@
       </c>
       <c r="T29" s="0" t="inlineStr">
         <is>
-          <t>KWH686907</t>
+          <t>KWH687320</t>
         </is>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>2018-9531</t>
+          <t>2018-9532</t>
         </is>
       </c>
       <c r="W29" s="0" t="d">
@@ -4194,12 +4313,12 @@
       <c r="X29" s="0" t="d">
         <v>2018-05-31T00:00:00</v>
       </c>
-      <c r="Y29" s="0" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4223,11 +4342,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>8888</v>
+        <v>8889</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>MSKU6120061</t>
+          <t>PONU7330756</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4235,7 +4354,7 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
@@ -4287,27 +4406,27 @@
       </c>
       <c r="T30" s="0" t="inlineStr">
         <is>
-          <t>KWH687320</t>
+          <t>KWH687322</t>
         </is>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="inlineStr">
         <is>
-          <t>2018-9532</t>
+          <t>2018-9693</t>
         </is>
       </c>
       <c r="W30" s="0" t="d">
         <v>2018-05-29T00:00:00</v>
       </c>
       <c r="X30" s="0" t="d">
-        <v>2018-05-31T00:00:00</v>
-      </c>
-      <c r="Y30" s="0" t="inlineStr">
+        <v>2018-06-03T00:00:00</v>
+      </c>
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4331,11 +4450,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>8889</v>
+        <v>8890</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>PONU7330756</t>
+          <t>SUDU8595563</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4395,13 +4514,13 @@
       </c>
       <c r="T31" s="0" t="inlineStr">
         <is>
-          <t>KWH687322</t>
+          <t>KWH686925</t>
         </is>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>2018-9693</t>
+          <t>2018-9704</t>
         </is>
       </c>
       <c r="W31" s="0" t="d">
@@ -4410,12 +4529,12 @@
       <c r="X31" s="0" t="d">
         <v>2018-06-03T00:00:00</v>
       </c>
-      <c r="Y31" s="0" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4439,11 +4558,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>8890</v>
+        <v>8891</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>SUDU8595563</t>
+          <t>MRKU0258961</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4451,7 +4570,7 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
@@ -4503,27 +4622,27 @@
       </c>
       <c r="T32" s="0" t="inlineStr">
         <is>
-          <t>KWH686925</t>
+          <t>KWH686828</t>
         </is>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>2018-9704</t>
+          <t>2018-9955</t>
         </is>
       </c>
       <c r="W32" s="0" t="d">
         <v>2018-05-29T00:00:00</v>
       </c>
       <c r="X32" s="0" t="d">
-        <v>2018-06-03T00:00:00</v>
-      </c>
-      <c r="Y32" s="0" t="inlineStr">
+        <v>2018-06-07T00:00:00</v>
+      </c>
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4547,11 +4666,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>8891</v>
+        <v>8892</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>MRKU0258961</t>
+          <t>MRKU0243200</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4611,13 +4730,13 @@
       </c>
       <c r="T33" s="0" t="inlineStr">
         <is>
-          <t>KWH686828</t>
+          <t>KWH686758</t>
         </is>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0" t="inlineStr">
         <is>
-          <t>2018-9955</t>
+          <t>2018-9950</t>
         </is>
       </c>
       <c r="W33" s="0" t="d">
@@ -4626,12 +4745,12 @@
       <c r="X33" s="0" t="d">
         <v>2018-06-07T00:00:00</v>
       </c>
-      <c r="Y33" s="0" t="inlineStr">
+      <c r="Y33" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
+      <c r="Z33" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4655,11 +4774,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>8892</v>
+        <v>8893</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>MRKU0243200</t>
+          <t>SUDU8785619</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4667,7 +4786,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -4719,27 +4838,27 @@
       </c>
       <c r="T34" s="0" t="inlineStr">
         <is>
-          <t>KWH686758</t>
+          <t>KWH687329</t>
         </is>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>2018-9950</t>
+          <t>2018-10081</t>
         </is>
       </c>
       <c r="W34" s="0" t="d">
         <v>2018-05-29T00:00:00</v>
       </c>
       <c r="X34" s="0" t="d">
-        <v>2018-06-07T00:00:00</v>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
+        <v>2018-06-09T00:00:00</v>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
+      <c r="Z34" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4763,11 +4882,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>8893</v>
+        <v>9005</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>SUDU8785619</t>
+          <t>MSKU6440949</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4775,7 +4894,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -4795,12 +4914,12 @@
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -4827,27 +4946,27 @@
       </c>
       <c r="T35" s="0" t="inlineStr">
         <is>
-          <t>KWH687329</t>
+          <t>UL1614691</t>
         </is>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0" t="inlineStr">
         <is>
-          <t>2018-10081</t>
+          <t>2018-12092</t>
         </is>
       </c>
       <c r="W35" s="0" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="X35" s="0" t="d">
-        <v>2018-06-09T00:00:00</v>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
+        <v>2018-07-19T00:00:00</v>
+      </c>
+      <c r="Y35" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
+      <c r="Z35" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4856,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="AB35" s="0" t="n">
-        <v>575334555</v>
+        <v>964766879</v>
       </c>
       <c r="AC35" s="0" t="n">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AD35" s="0"/>
       <c r="AE35" s="0" t="inlineStr">
@@ -4871,11 +4990,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9005</v>
+        <v>9006</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>MSKU6440949</t>
+          <t>MSKU9550235</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4883,7 +5002,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -4935,13 +5054,13 @@
       </c>
       <c r="T36" s="0" t="inlineStr">
         <is>
-          <t>UL1614691</t>
+          <t>UL1614692</t>
         </is>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0" t="inlineStr">
         <is>
-          <t>2018-12092</t>
+          <t>2018-12107</t>
         </is>
       </c>
       <c r="W36" s="0" t="d">
@@ -4950,12 +5069,12 @@
       <c r="X36" s="0" t="d">
         <v>2018-07-19T00:00:00</v>
       </c>
-      <c r="Y36" s="0" t="inlineStr">
+      <c r="Y36" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
+      <c r="Z36" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4979,11 +5098,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9006</v>
+        <v>9007</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>MSKU9550235</t>
+          <t>GLDU0996495</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4991,7 +5110,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -5043,27 +5162,27 @@
       </c>
       <c r="T37" s="0" t="inlineStr">
         <is>
-          <t>UL1614692</t>
+          <t>UL1614690</t>
         </is>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>2018-12107</t>
+          <t>2018-12180</t>
         </is>
       </c>
       <c r="W37" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="X37" s="0" t="d">
-        <v>2018-07-19T00:00:00</v>
-      </c>
-      <c r="Y37" s="0" t="inlineStr">
+        <v>2018-07-20T00:00:00</v>
+      </c>
+      <c r="Y37" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
+      <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5087,11 +5206,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>9007</v>
+        <v>9008</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>GLDU0996495</t>
+          <t>MRKU0087827</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -5151,13 +5270,13 @@
       </c>
       <c r="T38" s="0" t="inlineStr">
         <is>
-          <t>UL1614690</t>
+          <t>UL1614693</t>
         </is>
       </c>
       <c r="U38" s="0"/>
       <c r="V38" s="0" t="inlineStr">
         <is>
-          <t>2018-12180</t>
+          <t>2018-12164</t>
         </is>
       </c>
       <c r="W38" s="0" t="d">
@@ -5166,12 +5285,12 @@
       <c r="X38" s="0" t="d">
         <v>2018-07-20T00:00:00</v>
       </c>
-      <c r="Y38" s="0" t="inlineStr">
+      <c r="Y38" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z38" s="0" t="inlineStr">
+      <c r="Z38" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5195,11 +5314,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>9008</v>
+        <v>9009</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>MRKU0087827</t>
+          <t>MSKU8517886</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5207,7 +5326,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -5259,27 +5378,27 @@
       </c>
       <c r="T39" s="0" t="inlineStr">
         <is>
-          <t>UL1614693</t>
+          <t>UL1615420</t>
         </is>
       </c>
       <c r="U39" s="0"/>
       <c r="V39" s="0" t="inlineStr">
         <is>
-          <t>2018-12164</t>
+          <t>2018-12102</t>
         </is>
       </c>
       <c r="W39" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="X39" s="0" t="d">
-        <v>2018-07-20T00:00:00</v>
-      </c>
-      <c r="Y39" s="0" t="inlineStr">
+        <v>2018-07-19T00:00:00</v>
+      </c>
+      <c r="Y39" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z39" s="0" t="inlineStr">
+      <c r="Z39" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5288,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0" t="n">
-        <v>964766879</v>
+        <v>964573753</v>
       </c>
       <c r="AC39" s="0" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AD39" s="0"/>
       <c r="AE39" s="0" t="inlineStr">
@@ -5303,11 +5422,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>9009</v>
+        <v>9010</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>MSKU8517886</t>
+          <t>TRLU6876549</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5367,13 +5486,13 @@
       </c>
       <c r="T40" s="0" t="inlineStr">
         <is>
-          <t>UL1615420</t>
+          <t>UL1615419</t>
         </is>
       </c>
       <c r="U40" s="0"/>
       <c r="V40" s="0" t="inlineStr">
         <is>
-          <t>2018-12102</t>
+          <t>2018-12138</t>
         </is>
       </c>
       <c r="W40" s="0" t="d">
@@ -5382,12 +5501,12 @@
       <c r="X40" s="0" t="d">
         <v>2018-07-19T00:00:00</v>
       </c>
-      <c r="Y40" s="0" t="inlineStr">
+      <c r="Y40" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z40" s="0" t="inlineStr">
+      <c r="Z40" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5411,11 +5530,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>9010</v>
+        <v>9011</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>TRLU6876549</t>
+          <t>MAEU6357369</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5423,7 +5542,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -5475,27 +5594,27 @@
       </c>
       <c r="T41" s="0" t="inlineStr">
         <is>
-          <t>UL1615419</t>
+          <t>UL1615421</t>
         </is>
       </c>
       <c r="U41" s="0"/>
       <c r="V41" s="0" t="inlineStr">
         <is>
-          <t>2018-12138</t>
+          <t>2018-12171</t>
         </is>
       </c>
       <c r="W41" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="X41" s="0" t="d">
-        <v>2018-07-19T00:00:00</v>
-      </c>
-      <c r="Y41" s="0" t="inlineStr">
+        <v>2018-07-20T00:00:00</v>
+      </c>
+      <c r="Y41" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z41" s="0" t="inlineStr">
+      <c r="Z41" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5519,11 +5638,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>9011</v>
+        <v>9012</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>MAEU6357369</t>
+          <t>MSKU6094337</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5583,27 +5702,27 @@
       </c>
       <c r="T42" s="0" t="inlineStr">
         <is>
-          <t>UL1615421</t>
+          <t>UL1615417</t>
         </is>
       </c>
       <c r="U42" s="0"/>
       <c r="V42" s="0" t="inlineStr">
         <is>
-          <t>2018-12171</t>
+          <t>2018-12187</t>
         </is>
       </c>
       <c r="W42" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="X42" s="0" t="d">
-        <v>2018-07-20T00:00:00</v>
-      </c>
-      <c r="Y42" s="0" t="inlineStr">
+        <v>2018-07-23T00:00:00</v>
+      </c>
+      <c r="Y42" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z42" s="0" t="inlineStr">
+      <c r="Z42" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5627,11 +5746,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>9012</v>
+        <v>9013</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>MSKU6094337</t>
+          <t>MSKU6509705</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5691,27 +5810,27 @@
       </c>
       <c r="T43" s="0" t="inlineStr">
         <is>
-          <t>UL1615417</t>
+          <t>KWH687414</t>
         </is>
       </c>
       <c r="U43" s="0"/>
       <c r="V43" s="0" t="inlineStr">
         <is>
-          <t>2018-12187</t>
+          <t>2018-12091</t>
         </is>
       </c>
       <c r="W43" s="0" t="d">
         <v>2018-07-17T00:00:00</v>
       </c>
       <c r="X43" s="0" t="d">
-        <v>2018-07-23T00:00:00</v>
-      </c>
-      <c r="Y43" s="0" t="inlineStr">
+        <v>2018-07-20T00:00:00</v>
+      </c>
+      <c r="Y43" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z43" s="0" t="inlineStr">
+      <c r="Z43" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5720,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0" t="n">
-        <v>964573753</v>
+        <v>575756665</v>
       </c>
       <c r="AC43" s="0" t="n">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="AD43" s="0"/>
       <c r="AE43" s="0" t="inlineStr">
@@ -5735,11 +5854,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>9013</v>
+        <v>9040</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>MSKU6509705</t>
+          <t>TGHU6043898</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5747,7 +5866,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -5767,12 +5886,12 @@
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
@@ -5797,29 +5916,27 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T44" s="0" t="inlineStr">
-        <is>
-          <t>KWH687414</t>
-        </is>
+      <c r="T44" s="0" t="n">
+        <v>2185060</v>
       </c>
       <c r="U44" s="0"/>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>2018-12091</t>
+          <t>2018-12875</t>
         </is>
       </c>
       <c r="W44" s="0" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="X44" s="0" t="d">
-        <v>2018-07-20T00:00:00</v>
-      </c>
-      <c r="Y44" s="0" t="inlineStr">
+        <v>2018-07-31T00:00:00</v>
+      </c>
+      <c r="Y44" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z44" s="0" t="inlineStr">
+      <c r="Z44" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5828,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0" t="n">
-        <v>575756665</v>
+        <v>964620392</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="AD44" s="0"/>
       <c r="AE44" s="0" t="inlineStr">
@@ -5843,11 +5960,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>9040</v>
+        <v>9041</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>TGHU6043898</t>
+          <t>MSKU0637123</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5906,12 +6023,12 @@
         </is>
       </c>
       <c r="T45" s="0" t="n">
-        <v>2185060</v>
+        <v>2830816</v>
       </c>
       <c r="U45" s="0"/>
       <c r="V45" s="0" t="inlineStr">
         <is>
-          <t>2018-12875</t>
+          <t>2018-12868</t>
         </is>
       </c>
       <c r="W45" s="0" t="d">
@@ -5920,12 +6037,12 @@
       <c r="X45" s="0" t="d">
         <v>2018-07-31T00:00:00</v>
       </c>
-      <c r="Y45" s="0" t="inlineStr">
+      <c r="Y45" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z45" s="0" t="inlineStr">
+      <c r="Z45" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5949,11 +6066,11 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>9041</v>
+        <v>9042</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>MSKU0637123</t>
+          <t>PONU1819272</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -6011,27 +6128,29 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T46" s="0" t="n">
-        <v>2830816</v>
+      <c r="T46" s="0" t="inlineStr">
+        <is>
+          <t>UL2830749</t>
+        </is>
       </c>
       <c r="U46" s="0"/>
       <c r="V46" s="0" t="inlineStr">
         <is>
-          <t>2018-12868</t>
+          <t>2018-12930</t>
         </is>
       </c>
       <c r="W46" s="0" t="d">
         <v>2018-07-30T00:00:00</v>
       </c>
       <c r="X46" s="0" t="d">
-        <v>2018-07-31T00:00:00</v>
-      </c>
-      <c r="Y46" s="0" t="inlineStr">
+        <v>2018-08-01T00:00:00</v>
+      </c>
+      <c r="Y46" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z46" s="0" t="inlineStr">
+      <c r="Z46" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6055,11 +6174,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>9042</v>
+        <v>9043</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>PONU1819272</t>
+          <t>CAXU9261436</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -6117,15 +6236,13 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T47" s="0" t="inlineStr">
-        <is>
-          <t>UL2830749</t>
-        </is>
+      <c r="T47" s="0" t="n">
+        <v>4107818</v>
       </c>
       <c r="U47" s="0"/>
       <c r="V47" s="0" t="inlineStr">
         <is>
-          <t>2018-12930</t>
+          <t>2018-12935</t>
         </is>
       </c>
       <c r="W47" s="0" t="d">
@@ -6134,12 +6251,12 @@
       <c r="X47" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
-      <c r="Y47" s="0" t="inlineStr">
+      <c r="Y47" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z47" s="0" t="inlineStr">
+      <c r="Z47" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6163,11 +6280,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>9043</v>
+        <v>9044</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>CAXU9261436</t>
+          <t>PONU8266482</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6225,13 +6342,15 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="T48" s="0" t="n">
-        <v>4107818</v>
+      <c r="T48" s="0" t="inlineStr">
+        <is>
+          <t>UL2830749</t>
+        </is>
       </c>
       <c r="U48" s="0"/>
       <c r="V48" s="0" t="inlineStr">
         <is>
-          <t>2018-12935</t>
+          <t>2018-12940</t>
         </is>
       </c>
       <c r="W48" s="0" t="d">
@@ -6240,12 +6359,12 @@
       <c r="X48" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
-      <c r="Y48" s="0" t="inlineStr">
+      <c r="Y48" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z48" s="0" t="inlineStr">
+      <c r="Z48" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6269,11 +6388,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>9044</v>
+        <v>9045</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>PONU8266482</t>
+          <t>PONU7811427</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6301,12 +6420,12 @@
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
@@ -6333,27 +6452,27 @@
       </c>
       <c r="T49" s="0" t="inlineStr">
         <is>
-          <t>UL2830749</t>
+          <t>UL2830879</t>
         </is>
       </c>
       <c r="U49" s="0"/>
       <c r="V49" s="0" t="inlineStr">
         <is>
-          <t>2018-12940</t>
+          <t>2018-12988</t>
         </is>
       </c>
       <c r="W49" s="0" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="X49" s="0" t="d">
-        <v>2018-08-01T00:00:00</v>
-      </c>
-      <c r="Y49" s="0" t="inlineStr">
+        <v>2018-08-03T00:00:00</v>
+      </c>
+      <c r="Y49" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z49" s="0" t="inlineStr">
+      <c r="Z49" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6362,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0" t="n">
-        <v>964620392</v>
+        <v>964694340</v>
       </c>
       <c r="AC49" s="0" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD49" s="0"/>
       <c r="AE49" s="0" t="inlineStr">
@@ -6377,11 +6496,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>9045</v>
+        <v>9046</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>PONU7811427</t>
+          <t>PONU7918251</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6441,13 +6560,13 @@
       </c>
       <c r="T50" s="0" t="inlineStr">
         <is>
-          <t>UL2830879</t>
+          <t>UL2830857</t>
         </is>
       </c>
       <c r="U50" s="0"/>
       <c r="V50" s="0" t="inlineStr">
         <is>
-          <t>2018-12988</t>
+          <t>2018-12986</t>
         </is>
       </c>
       <c r="W50" s="0" t="d">
@@ -6456,12 +6575,12 @@
       <c r="X50" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y50" s="0" t="inlineStr">
+      <c r="Y50" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z50" s="0" t="inlineStr">
+      <c r="Z50" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6485,11 +6604,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>9046</v>
+        <v>9047</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>PONU7918251</t>
+          <t>PONU1692260</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6497,7 +6616,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -6549,13 +6668,13 @@
       </c>
       <c r="T51" s="0" t="inlineStr">
         <is>
-          <t>UL2830857</t>
+          <t>UL2830877</t>
         </is>
       </c>
       <c r="U51" s="0"/>
       <c r="V51" s="0" t="inlineStr">
         <is>
-          <t>2018-12986</t>
+          <t>2018-12992</t>
         </is>
       </c>
       <c r="W51" s="0" t="d">
@@ -6564,12 +6683,12 @@
       <c r="X51" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y51" s="0" t="inlineStr">
+      <c r="Y51" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z51" s="0" t="inlineStr">
+      <c r="Z51" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6593,11 +6712,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>9047</v>
+        <v>9048</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>PONU1692260</t>
+          <t>MSKU9609945</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6605,7 +6724,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -6657,13 +6776,13 @@
       </c>
       <c r="T52" s="0" t="inlineStr">
         <is>
-          <t>UL2830877</t>
+          <t>UL2830851</t>
         </is>
       </c>
       <c r="U52" s="0"/>
       <c r="V52" s="0" t="inlineStr">
         <is>
-          <t>2018-12992</t>
+          <t>2018-12991</t>
         </is>
       </c>
       <c r="W52" s="0" t="d">
@@ -6672,12 +6791,12 @@
       <c r="X52" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y52" s="0" t="inlineStr">
+      <c r="Y52" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z52" s="0" t="inlineStr">
+      <c r="Z52" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6701,11 +6820,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>MSKU9609945</t>
+          <t>MSKU8354454</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6765,13 +6884,13 @@
       </c>
       <c r="T53" s="0" t="inlineStr">
         <is>
-          <t>UL2830851</t>
+          <t>UL2830854</t>
         </is>
       </c>
       <c r="U53" s="0"/>
       <c r="V53" s="0" t="inlineStr">
         <is>
-          <t>2018-12991</t>
+          <t>2018-12990</t>
         </is>
       </c>
       <c r="W53" s="0" t="d">
@@ -6780,12 +6899,12 @@
       <c r="X53" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y53" s="0" t="inlineStr">
+      <c r="Y53" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z53" s="0" t="inlineStr">
+      <c r="Z53" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6809,11 +6928,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>9049</v>
+        <v>9050</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>MSKU8354454</t>
+          <t>PONU1894316</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6821,7 +6940,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -6873,13 +6992,13 @@
       </c>
       <c r="T54" s="0" t="inlineStr">
         <is>
-          <t>UL2830854</t>
+          <t>UL2830882</t>
         </is>
       </c>
       <c r="U54" s="0"/>
       <c r="V54" s="0" t="inlineStr">
         <is>
-          <t>2018-12990</t>
+          <t>2018-12995</t>
         </is>
       </c>
       <c r="W54" s="0" t="d">
@@ -6888,12 +7007,12 @@
       <c r="X54" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y54" s="0" t="inlineStr">
+      <c r="Y54" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z54" s="0" t="inlineStr">
+      <c r="Z54" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -6917,11 +7036,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>9050</v>
+        <v>9051</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>PONU1894316</t>
+          <t>MSKU9252694</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6929,7 +7048,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -6981,13 +7100,13 @@
       </c>
       <c r="T55" s="0" t="inlineStr">
         <is>
-          <t>UL2830882</t>
+          <t>UL2830875</t>
         </is>
       </c>
       <c r="U55" s="0"/>
       <c r="V55" s="0" t="inlineStr">
         <is>
-          <t>2018-12995</t>
+          <t>2018-12998</t>
         </is>
       </c>
       <c r="W55" s="0" t="d">
@@ -6996,12 +7115,12 @@
       <c r="X55" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y55" s="0" t="inlineStr">
+      <c r="Y55" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z55" s="0" t="inlineStr">
+      <c r="Z55" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7025,11 +7144,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>9051</v>
+        <v>9052</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>MSKU9252694</t>
+          <t>MSKU9470931</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -7089,13 +7208,13 @@
       </c>
       <c r="T56" s="0" t="inlineStr">
         <is>
-          <t>UL2830875</t>
+          <t>UL2830855</t>
         </is>
       </c>
       <c r="U56" s="0"/>
       <c r="V56" s="0" t="inlineStr">
         <is>
-          <t>2018-12998</t>
+          <t>2018-12999</t>
         </is>
       </c>
       <c r="W56" s="0" t="d">
@@ -7104,12 +7223,12 @@
       <c r="X56" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y56" s="0" t="inlineStr">
+      <c r="Y56" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z56" s="0" t="inlineStr">
+      <c r="Z56" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7133,11 +7252,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>9052</v>
+        <v>9053</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>MSKU9470931</t>
+          <t>MSKU8752592</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7197,13 +7316,13 @@
       </c>
       <c r="T57" s="0" t="inlineStr">
         <is>
-          <t>UL2830855</t>
+          <t>UL2830880</t>
         </is>
       </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0" t="inlineStr">
         <is>
-          <t>2018-12999</t>
+          <t>2018-12997</t>
         </is>
       </c>
       <c r="W57" s="0" t="d">
@@ -7212,12 +7331,12 @@
       <c r="X57" s="0" t="d">
         <v>2018-08-03T00:00:00</v>
       </c>
-      <c r="Y57" s="0" t="inlineStr">
+      <c r="Y57" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z57" s="0" t="inlineStr">
+      <c r="Z57" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7241,11 +7360,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>9053</v>
+        <v>9054</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>MSKU8752592</t>
+          <t>MIEU3069581</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7305,27 +7424,27 @@
       </c>
       <c r="T58" s="0" t="inlineStr">
         <is>
-          <t>UL2830880</t>
+          <t>UL2830853</t>
         </is>
       </c>
       <c r="U58" s="0"/>
       <c r="V58" s="0" t="inlineStr">
         <is>
-          <t>2018-12997</t>
+          <t>2018-13084</t>
         </is>
       </c>
       <c r="W58" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
       <c r="X58" s="0" t="d">
-        <v>2018-08-03T00:00:00</v>
-      </c>
-      <c r="Y58" s="0" t="inlineStr">
+        <v>2018-08-04T00:00:00</v>
+      </c>
+      <c r="Y58" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z58" s="0" t="inlineStr">
+      <c r="Z58" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7349,11 +7468,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>9054</v>
+        <v>9055</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>MIEU3069581</t>
+          <t>MSKU6874333</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7361,7 +7480,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -7413,27 +7532,27 @@
       </c>
       <c r="T59" s="0" t="inlineStr">
         <is>
-          <t>UL2830853</t>
+          <t>UL2830881</t>
         </is>
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0" t="inlineStr">
         <is>
-          <t>2018-13084</t>
+          <t>2018-13180</t>
         </is>
       </c>
       <c r="W59" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
       <c r="X59" s="0" t="d">
-        <v>2018-08-04T00:00:00</v>
-      </c>
-      <c r="Y59" s="0" t="inlineStr">
+        <v>2018-08-10T00:00:00</v>
+      </c>
+      <c r="Y59" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z59" s="0" t="inlineStr">
+      <c r="Z59" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7457,11 +7576,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>9055</v>
+        <v>9056</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>MSKU6874333</t>
+          <t>PONU7777364</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7469,7 +7588,7 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
@@ -7521,27 +7640,27 @@
       </c>
       <c r="T60" s="0" t="inlineStr">
         <is>
-          <t>UL2830881</t>
+          <t>UL2830878</t>
         </is>
       </c>
       <c r="U60" s="0"/>
       <c r="V60" s="0" t="inlineStr">
         <is>
-          <t>2018-13180</t>
+          <t>2018-13246</t>
         </is>
       </c>
       <c r="W60" s="0" t="d">
         <v>2018-08-01T00:00:00</v>
       </c>
       <c r="X60" s="0" t="d">
-        <v>2018-08-10T00:00:00</v>
-      </c>
-      <c r="Y60" s="0" t="inlineStr">
+        <v>2018-08-11T00:00:00</v>
+      </c>
+      <c r="Y60" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z60" s="0" t="inlineStr">
+      <c r="Z60" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7565,11 +7684,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>9056</v>
+        <v>9057</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>PONU7777364</t>
+          <t>PONU1813931</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7577,7 +7696,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -7629,13 +7748,13 @@
       </c>
       <c r="T61" s="0" t="inlineStr">
         <is>
-          <t>UL2830878</t>
+          <t>UL2830852</t>
         </is>
       </c>
       <c r="U61" s="0"/>
       <c r="V61" s="0" t="inlineStr">
         <is>
-          <t>2018-13246</t>
+          <t>2018-13181</t>
         </is>
       </c>
       <c r="W61" s="0" t="d">
@@ -7644,12 +7763,12 @@
       <c r="X61" s="0" t="d">
         <v>2018-08-11T00:00:00</v>
       </c>
-      <c r="Y61" s="0" t="inlineStr">
+      <c r="Y61" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z61" s="0" t="inlineStr">
+      <c r="Z61" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7673,15 +7792,15 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>9057</v>
+        <v>9722</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>PONU1813931</t>
+          <t>MSKU5753050</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
@@ -7705,17 +7824,17 @@
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
@@ -7732,32 +7851,32 @@
       <c r="R62" s="0"/>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
         <is>
-          <t>UL2830852</t>
+          <t>CN8969052</t>
         </is>
       </c>
       <c r="U62" s="0"/>
       <c r="V62" s="0" t="inlineStr">
         <is>
-          <t>2018-13181</t>
+          <t>2018-15622</t>
         </is>
       </c>
       <c r="W62" s="0" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="X62" s="0" t="d">
-        <v>2018-08-11T00:00:00</v>
-      </c>
-      <c r="Y62" s="0" t="inlineStr">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="Y62" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z62" s="0" t="inlineStr">
+      <c r="Z62" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7765,11 +7884,13 @@
       <c r="AA62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AB62" s="0" t="n">
-        <v>964694340</v>
+      <c r="AB62" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AC62" s="0" t="n">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="AD62" s="0"/>
       <c r="AE62" s="0" t="inlineStr">
@@ -7781,11 +7902,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>9722</v>
+        <v>9723</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>MSKU5753050</t>
+          <t>PONU2098653</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -7845,13 +7966,13 @@
       </c>
       <c r="T63" s="0" t="inlineStr">
         <is>
-          <t>CN8969052</t>
+          <t>CN8969053</t>
         </is>
       </c>
       <c r="U63" s="0"/>
       <c r="V63" s="0" t="inlineStr">
         <is>
-          <t>2018-15622</t>
+          <t>2018-15623</t>
         </is>
       </c>
       <c r="W63" s="0" t="d">
@@ -7860,12 +7981,12 @@
       <c r="X63" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y63" s="0" t="inlineStr">
+      <c r="Y63" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z63" s="0" t="inlineStr">
+      <c r="Z63" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -7891,11 +8012,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>9723</v>
+        <v>9724</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>PONU2098653</t>
+          <t>MSKU2852892</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7955,13 +8076,13 @@
       </c>
       <c r="T64" s="0" t="inlineStr">
         <is>
-          <t>CN8969053</t>
+          <t>CN8969127</t>
         </is>
       </c>
       <c r="U64" s="0"/>
       <c r="V64" s="0" t="inlineStr">
         <is>
-          <t>2018-15623</t>
+          <t>2018-15624</t>
         </is>
       </c>
       <c r="W64" s="0" t="d">
@@ -7970,12 +8091,12 @@
       <c r="X64" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y64" s="0" t="inlineStr">
+      <c r="Y64" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z64" s="0" t="inlineStr">
+      <c r="Z64" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8001,11 +8122,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>9724</v>
+        <v>9725</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>MSKU2852892</t>
+          <t>IPXU3733892</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -8065,13 +8186,13 @@
       </c>
       <c r="T65" s="0" t="inlineStr">
         <is>
-          <t>CN8969127</t>
+          <t>CN8969128</t>
         </is>
       </c>
       <c r="U65" s="0"/>
       <c r="V65" s="0" t="inlineStr">
         <is>
-          <t>2018-15624</t>
+          <t>2018-15625</t>
         </is>
       </c>
       <c r="W65" s="0" t="d">
@@ -8080,12 +8201,12 @@
       <c r="X65" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y65" s="0" t="inlineStr">
+      <c r="Y65" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z65" s="0" t="inlineStr">
+      <c r="Z65" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -8108,116 +8229,6 @@
         </is>
       </c>
       <c r="AF65" s="0"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="n">
-        <v>9725</v>
-      </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>IPXU3733892</t>
-        </is>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D66" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="G66" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="H66" s="0" t="inlineStr">
-        <is>
-          <t>CAROLINA TRADER</t>
-        </is>
-      </c>
-      <c r="I66" s="0" t="inlineStr">
-        <is>
-          <t>2794/2018</t>
-        </is>
-      </c>
-      <c r="J66" s="0" t="inlineStr">
-        <is>
-          <t>JTC CARGO INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="K66" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L66" s="0"/>
-      <c r="M66" s="0"/>
-      <c r="N66" s="0"/>
-      <c r="O66" s="0"/>
-      <c r="P66" s="0"/>
-      <c r="Q66" s="0"/>
-      <c r="R66" s="0"/>
-      <c r="S66" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="T66" s="0" t="inlineStr">
-        <is>
-          <t>CN8969128</t>
-        </is>
-      </c>
-      <c r="U66" s="0"/>
-      <c r="V66" s="0" t="inlineStr">
-        <is>
-          <t>2018-15625</t>
-        </is>
-      </c>
-      <c r="W66" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="X66" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="Y66" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="Z66" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AA66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
-      </c>
-      <c r="AC66" s="0" t="n">
-        <v>278</v>
-      </c>
-      <c r="AD66" s="0"/>
-      <c r="AE66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF66" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -8240,15 +8251,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -8265,78 +8276,109 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Laden Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8352,11 +8394,11 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-GP</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -8374,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -8390,11 +8432,11 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>40-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -8412,44 +8454,6 @@
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -8474,13 +8478,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -8488,19 +8492,19 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="25.08988764044944"/>
   </cols>
   <sheetData>
@@ -8511,149 +8515,235 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>MBL</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MBL</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:24</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>11068</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>FSCU3516047</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>MBL</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>MCC TOKYO</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>2016/2000</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>581875712</v>
+      </c>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>ASWAD COMPOSITE MILLS</t>
+        </is>
+      </c>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL/IEIR/2018/5</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>SODIUM SULPHATE</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>CN1223846</t>
+        </is>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="d">
+        <v>2018-09-23T12:26:09.819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>11068</v>
+        <v>11069</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>FSCU3516047</t>
+          <t>SUDU1853136</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -8705,11 +8795,7 @@
         </is>
       </c>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL/IEIR/2018/5</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
       <c r="Q8" s="0" t="inlineStr">
         <is>
           <t>SODIUM SULPHATE</t>
@@ -8727,7 +8813,7 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>CN1223846</t>
+          <t>CN1597493</t>
         </is>
       </c>
       <c r="U8" s="0"/>
@@ -8737,11 +8823,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>11069</v>
+        <v>11070</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>SUDU1853136</t>
+          <t>PONU0262114</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -8811,7 +8897,7 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>CN1597493</t>
+          <t>CN1597448</t>
         </is>
       </c>
       <c r="U9" s="0"/>
@@ -8821,11 +8907,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11070</v>
+        <v>11071</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>PONU0262114</t>
+          <t>MSKU7690840</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -8895,7 +8981,7 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>CN1597448</t>
+          <t>CN1597480</t>
         </is>
       </c>
       <c r="U10" s="0"/>
@@ -8905,11 +8991,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11071</v>
+        <v>11072</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>MSKU7690840</t>
+          <t>MSKU7539849</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -8979,7 +9065,7 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>CN1597480</t>
+          <t>CN1223955</t>
         </is>
       </c>
       <c r="U11" s="0"/>
@@ -8989,11 +9075,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>11072</v>
+        <v>11073</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>MSKU7539849</t>
+          <t>MSKU7166405</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -9063,7 +9149,7 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>CN1223955</t>
+          <t>CN1223844</t>
         </is>
       </c>
       <c r="U12" s="0"/>
@@ -9073,11 +9159,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>11073</v>
+        <v>11074</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>MSKU7166405</t>
+          <t>MSKU7006562</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -9147,7 +9233,7 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>CN1223844</t>
+          <t>CN1597466</t>
         </is>
       </c>
       <c r="U13" s="0"/>
@@ -9157,11 +9243,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>11074</v>
+        <v>11075</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>MSKU7006562</t>
+          <t>MSKU5738456</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -9231,7 +9317,7 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>CN1597466</t>
+          <t>CN1223871</t>
         </is>
       </c>
       <c r="U14" s="0"/>
@@ -9241,11 +9327,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>11075</v>
+        <v>11076</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>MSKU5738456</t>
+          <t>MSKU5708657</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -9315,7 +9401,7 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>CN1223871</t>
+          <t>CN1223841</t>
         </is>
       </c>
       <c r="U15" s="0"/>
@@ -9325,11 +9411,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11076</v>
+        <v>11077</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>MSKU5708657</t>
+          <t>MSKU5112400</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -9399,7 +9485,7 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>CN1223841</t>
+          <t>CN1597471</t>
         </is>
       </c>
       <c r="U16" s="0"/>
@@ -9409,11 +9495,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>11077</v>
+        <v>11078</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>MSKU5112400</t>
+          <t>MSKU4192530</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -9483,7 +9569,7 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>CN1597471</t>
+          <t>CN1597481</t>
         </is>
       </c>
       <c r="U17" s="0"/>
@@ -9493,11 +9579,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>11078</v>
+        <v>11079</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>MSKU4192530</t>
+          <t>MSKU3534237</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -9567,7 +9653,7 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>CN1597481</t>
+          <t>CN1597483</t>
         </is>
       </c>
       <c r="U18" s="0"/>
@@ -9577,11 +9663,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>11079</v>
+        <v>11080</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>MSKU3534237</t>
+          <t>MSKU3262674</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -9651,7 +9737,7 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>CN1597483</t>
+          <t>CN1597490</t>
         </is>
       </c>
       <c r="U19" s="0"/>
@@ -9661,11 +9747,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>11080</v>
+        <v>11081</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>MSKU3262674</t>
+          <t>MSKU3088726</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -9735,7 +9821,7 @@
       </c>
       <c r="T20" s="0" t="inlineStr">
         <is>
-          <t>CN1597490</t>
+          <t>CN1223847</t>
         </is>
       </c>
       <c r="U20" s="0"/>
@@ -9745,11 +9831,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>11081</v>
+        <v>11082</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>MSKU3088726</t>
+          <t>MRKU9577471</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -9819,7 +9905,7 @@
       </c>
       <c r="T21" s="0" t="inlineStr">
         <is>
-          <t>CN1223847</t>
+          <t>CN1223952</t>
         </is>
       </c>
       <c r="U21" s="0"/>
@@ -9829,11 +9915,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>11082</v>
+        <v>11083</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>MRKU9577471</t>
+          <t>MRKU8894867</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -9903,7 +9989,7 @@
       </c>
       <c r="T22" s="0" t="inlineStr">
         <is>
-          <t>CN1223952</t>
+          <t>CN1597473</t>
         </is>
       </c>
       <c r="U22" s="0"/>
@@ -9913,11 +9999,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>11083</v>
+        <v>11084</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>MRKU8894867</t>
+          <t>MRKU7239840</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -9987,7 +10073,7 @@
       </c>
       <c r="T23" s="0" t="inlineStr">
         <is>
-          <t>CN1597473</t>
+          <t>CN1223848</t>
         </is>
       </c>
       <c r="U23" s="0"/>
@@ -9997,11 +10083,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>11084</v>
+        <v>11085</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>MRKU7239840</t>
+          <t>MRKU6935550</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -10071,7 +10157,7 @@
       </c>
       <c r="T24" s="0" t="inlineStr">
         <is>
-          <t>CN1223848</t>
+          <t>CN1223761</t>
         </is>
       </c>
       <c r="U24" s="0"/>
@@ -10081,11 +10167,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>11085</v>
+        <v>11086</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>MRKU6935550</t>
+          <t>MRKU6891920</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -10155,7 +10241,7 @@
       </c>
       <c r="T25" s="0" t="inlineStr">
         <is>
-          <t>CN1223761</t>
+          <t>CN1597472</t>
         </is>
       </c>
       <c r="U25" s="0"/>
@@ -10165,11 +10251,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>11086</v>
+        <v>11087</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>MRKU6891920</t>
+          <t>MRKU6500840</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -10239,7 +10325,7 @@
       </c>
       <c r="T26" s="0" t="inlineStr">
         <is>
-          <t>CN1597472</t>
+          <t>CN1223843</t>
         </is>
       </c>
       <c r="U26" s="0"/>
@@ -10249,11 +10335,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>11087</v>
+        <v>11088</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>MRKU6500840</t>
+          <t>HASU1271554</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -10323,7 +10409,7 @@
       </c>
       <c r="T27" s="0" t="inlineStr">
         <is>
-          <t>CN1223843</t>
+          <t>CN1223974</t>
         </is>
       </c>
       <c r="U27" s="0"/>
@@ -10333,11 +10419,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>11088</v>
+        <v>11089</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>HASU1271554</t>
+          <t>GESU3669463</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -10407,7 +10493,7 @@
       </c>
       <c r="T28" s="0" t="inlineStr">
         <is>
-          <t>CN1223974</t>
+          <t>CN1597478</t>
         </is>
       </c>
       <c r="U28" s="0"/>
@@ -10417,11 +10503,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>11089</v>
+        <v>11090</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>GESU3669463</t>
+          <t>SUDU1872481</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -10491,7 +10577,7 @@
       </c>
       <c r="T29" s="0" t="inlineStr">
         <is>
-          <t>CN1597478</t>
+          <t>CN1223803</t>
         </is>
       </c>
       <c r="U29" s="0"/>
@@ -10501,11 +10587,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>11090</v>
+        <v>11091</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>SUDU1872481</t>
+          <t>TCKU2852898</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -10575,95 +10661,11 @@
       </c>
       <c r="T30" s="0" t="inlineStr">
         <is>
-          <t>CN1223803</t>
+          <t>CN1223842</t>
         </is>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="d">
-        <v>2018-09-23T12:26:09.819</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>11091</v>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>TCKU2852898</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>MBL</t>
-        </is>
-      </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>MCC TOKYO</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>2016/2000</t>
-        </is>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>329</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>581875712</v>
-      </c>
-      <c r="M31" s="0"/>
-      <c r="N31" s="0" t="inlineStr">
-        <is>
-          <t>ASWAD COMPOSITE MILLS</t>
-        </is>
-      </c>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0" t="inlineStr">
-        <is>
-          <t>SODIUM SULPHATE</t>
-        </is>
-      </c>
-      <c r="R31" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="S31" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="T31" s="0" t="inlineStr">
-        <is>
-          <t>CN1223842</t>
-        </is>
-      </c>
-      <c r="U31" s="0"/>
-      <c r="V31" s="0" t="d">
         <v>2018-09-23T12:26:09.819</v>
       </c>
     </row>
